--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t xml:space="preserve">firma enzo, certificato di laurea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esami medici </t>
+  </si>
+  <si>
+    <t>ti dimetti il 12/1</t>
   </si>
 </sst>
 </file>
@@ -703,7 +709,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +889,9 @@
       <c r="H6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -906,12 +914,24 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="19">
+        <v>42024</v>
+      </c>
+      <c r="D8" s="19">
+        <v>42006</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
@@ -1287,7 +1307,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IMPORTANTE!$A$1:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -40,9 +45,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>devi andare al velodromo 02/12/2014</t>
   </si>
   <si>
     <t>ISACA CISA</t>
@@ -69,18 +71,12 @@
     <t>Disdetta appartamento</t>
   </si>
   <si>
-    <t xml:space="preserve">fare lettera e inviare e parlare con Donato anche riguardo al fatto del fatto se sia interessato o meno ai mobili </t>
-  </si>
-  <si>
     <t>http://www.pmi.org/Certification/~/media/PDF/Certifications/pdc_pmphandbook.ashx</t>
   </si>
   <si>
     <t xml:space="preserve">PMP Cetrtification </t>
   </si>
   <si>
-    <t>occorre studiare il processo al link a lato e decidere se e come procedere</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -96,9 +92,6 @@
     <t xml:space="preserve">Dimissioni </t>
   </si>
   <si>
-    <t>dimissioni a gennaio …</t>
-  </si>
-  <si>
     <t xml:space="preserve">Massoneria - entra </t>
   </si>
   <si>
@@ -123,20 +116,38 @@
     <t xml:space="preserve">molto in sordina </t>
   </si>
   <si>
-    <t xml:space="preserve">firma enzo, certificato di laurea </t>
-  </si>
-  <si>
     <t xml:space="preserve">Esami medici </t>
   </si>
   <si>
     <t>ti dimetti il 12/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disdire luce / gas / fastweb </t>
+  </si>
+  <si>
+    <t>25/4/15</t>
+  </si>
+  <si>
+    <t>15/1/15</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studiare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inviare raccomandata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">attesa esito application inviata </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +167,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,9 +353,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -404,9 +425,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -705,25 +728,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="47.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="47.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,22 +759,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -766,7 +788,7 @@
         <v>42005</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>6</v>
@@ -775,18 +797,18 @@
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="19">
         <v>41988</v>
@@ -801,19 +823,19 @@
         <v>6</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="19">
         <v>41976</v>
@@ -831,16 +853,16 @@
         <v>6</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="19">
         <v>42078</v>
@@ -855,21 +877,21 @@
         <v>6</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="19">
         <v>42024</v>
@@ -878,44 +900,44 @@
         <v>42006</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="19">
         <v>42024</v>
@@ -935,20 +957,32 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -961,7 +995,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -974,7 +1008,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -987,7 +1021,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1000,7 +1034,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1013,7 +1047,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1026,7 +1060,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1039,7 +1073,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1052,7 +1086,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1065,7 +1099,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1078,7 +1112,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1091,7 +1125,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1104,7 +1138,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1117,7 +1151,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1130,7 +1164,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1143,7 +1177,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1156,7 +1190,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1169,7 +1203,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1182,7 +1216,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1195,7 +1229,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1208,7 +1242,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1221,7 +1255,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1234,7 +1268,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1247,7 +1281,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1260,7 +1294,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1273,7 +1307,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1287,18 +1321,17 @@
       <c r="I35" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I35">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I35"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1307,17 +1340,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1328,70 +1361,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1400,6 +1433,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1411,14 +1449,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="100.140625" customWidth="1"/>
+    <col min="3" max="3" width="100.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1429,60 +1467,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1491,5 +1529,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t xml:space="preserve">attesa esito application inviata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trasloco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sei in attesa prezzi per I mobili da vendere . Il trasloco da Milano a Campofilone costa 750 EUR con il contatto di Donato </t>
   </si>
 </sst>
 </file>
@@ -353,9 +359,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -425,9 +432,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -731,7 +739,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -982,17 +990,27 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="28">
       <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9">

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t xml:space="preserve">sei in attesa prezzi per I mobili da vendere . Il trasloco da Milano a Campofilone costa 750 EUR con il contatto di Donato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">biglietto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acuista 2 vestiti boggi </t>
+  </si>
+  <si>
+    <t>acuista 2 valigie + borsa Lisa</t>
   </si>
 </sst>
 </file>
@@ -433,11 +442,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -739,21 +748,21 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="47.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="47.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="28">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -811,7 +820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -838,7 +847,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -865,7 +874,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="28">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -894,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -923,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -940,7 +949,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -965,7 +974,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -990,7 +999,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="28">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1013,46 +1022,70 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1065,7 +1098,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1078,7 +1111,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1091,7 +1124,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1104,7 +1137,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1117,7 +1150,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1130,7 +1163,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1143,7 +1176,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1156,7 +1189,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1169,7 +1202,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1182,7 +1215,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1195,7 +1228,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1208,7 +1241,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1221,7 +1254,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1234,7 +1267,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1247,7 +1280,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1260,7 +1293,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1273,7 +1306,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1286,7 +1319,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1299,7 +1332,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1312,7 +1345,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1325,7 +1358,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1361,14 +1394,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1388,7 +1421,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1397,7 +1430,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1406,7 +1439,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1417,7 +1450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1428,21 +1461,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1467,14 +1500,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="100.1640625" customWidth="1"/>
+    <col min="3" max="3" width="100.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1496,49 +1529,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="16000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -442,11 +442,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -747,22 +747,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="47.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="47.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -820,7 +820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -847,7 +847,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -861,7 +861,7 @@
         <v>42006</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>6</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -932,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1391,17 +1391,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1461,21 +1461,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1496,18 +1496,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="100.140625" customWidth="1"/>
+    <col min="3" max="3" width="100.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1529,49 +1529,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>8</v>
       </c>

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="12816"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -152,10 +152,13 @@
     <t xml:space="preserve">biglietto </t>
   </si>
   <si>
-    <t xml:space="preserve">acuista 2 vestiti boggi </t>
-  </si>
-  <si>
     <t>acuista 2 valigie + borsa Lisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fare discorso Lisa per per pregressa malattia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acquista 2 vestiti boggi </t>
   </si>
 </sst>
 </file>
@@ -747,22 +750,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="47.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="47.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -820,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -847,7 +850,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -903,7 +906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -932,7 +935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -949,7 +952,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -974,7 +977,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1022,7 +1025,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1043,12 +1046,12 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
@@ -1064,12 +1067,12 @@
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
@@ -1085,20 +1088,28 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1111,7 +1122,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1124,7 +1135,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1137,7 +1148,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1150,7 +1161,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1163,7 +1174,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1176,7 +1187,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1189,7 +1200,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1202,7 +1213,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1215,7 +1226,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1228,7 +1239,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1241,7 +1252,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1254,7 +1265,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1267,7 +1278,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1280,7 +1291,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1293,7 +1304,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1306,7 +1317,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1319,7 +1330,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1332,7 +1343,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1345,7 +1356,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1358,7 +1369,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1394,14 +1405,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1421,7 +1432,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1430,7 +1441,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1439,7 +1450,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1461,21 +1472,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1500,11 +1511,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="100.140625" customWidth="1"/>
+    <col min="3" max="3" width="100.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="12816"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20380" windowHeight="12820"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -116,9 +116,6 @@
     <t xml:space="preserve">molto in sordina </t>
   </si>
   <si>
-    <t xml:space="preserve">Esami medici </t>
-  </si>
-  <si>
     <t>ti dimetti il 12/1</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t xml:space="preserve">acquista 2 vestiti boggi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">certificati vaccini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esami medici , certificati e altro </t>
   </si>
 </sst>
 </file>
@@ -371,9 +374,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -444,12 +448,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -751,21 +756,21 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="47.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="47.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -794,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -817,13 +822,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -846,11 +851,11 @@
         <v>11</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -864,7 +869,7 @@
         <v>42006</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>6</v>
@@ -873,11 +878,11 @@
         <v>6</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -900,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -929,13 +934,13 @@
         <v>11</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -952,12 +957,12 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C8" s="19">
         <v>42024</v>
@@ -977,18 +982,18 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>6</v>
@@ -1002,12 +1007,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
@@ -1021,21 +1026,21 @@
         <v>6</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
@@ -1046,12 +1051,12 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
@@ -1067,12 +1072,12 @@
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
@@ -1088,12 +1093,12 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
@@ -1109,20 +1114,28 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1135,7 +1148,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1148,7 +1161,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1161,7 +1174,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1174,7 +1187,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1187,7 +1200,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1200,7 +1213,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1213,7 +1226,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1226,7 +1239,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1239,7 +1252,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1252,7 +1265,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1265,7 +1278,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1278,7 +1291,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1291,7 +1304,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1304,7 +1317,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1317,7 +1330,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1330,7 +1343,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1343,7 +1356,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1356,7 +1369,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1369,7 +1382,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1405,14 +1418,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1432,7 +1445,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1441,7 +1454,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1450,7 +1463,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1472,21 +1485,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1511,14 +1524,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="100.109375" customWidth="1"/>
+    <col min="3" max="3" width="100.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1540,49 +1553,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>8</v>
       </c>

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20380" windowHeight="12820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="12816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
     <sheet name="linee guida" sheetId="3" r:id="rId2"/>
     <sheet name="piano_b" sheetId="4" r:id="rId3"/>
+    <sheet name="gg_preavviso" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IMPORTANTE!$A$1:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -162,6 +163,27 @@
   </si>
   <si>
     <t xml:space="preserve">Esami medici , certificati e altro </t>
+  </si>
+  <si>
+    <t>dimissioni</t>
+  </si>
+  <si>
+    <t>ultimo giorno</t>
+  </si>
+  <si>
+    <t>N. GG LAVORAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN. GG </t>
+  </si>
+  <si>
+    <t>GG / MESE (MEDIA)</t>
+  </si>
+  <si>
+    <t>GG LAVORAT / MESE (MEDIA)</t>
+  </si>
+  <si>
+    <t>GG MALATT PREVISTI</t>
   </si>
 </sst>
 </file>
@@ -382,7 +404,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,14 +469,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -755,22 +778,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="47.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.77734375" style="1"/>
+    <col min="8" max="8" width="47.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="28">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -799,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -828,7 +851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -855,7 +878,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -882,7 +905,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="28">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -911,7 +934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -940,7 +963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -957,7 +980,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -982,7 +1005,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1007,7 +1030,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="28">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1030,7 +1053,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1051,7 +1074,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1072,7 +1095,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1093,7 +1116,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1114,7 +1137,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1135,7 +1158,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1148,7 +1171,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1161,7 +1184,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1174,7 +1197,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1187,7 +1210,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1200,7 +1223,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1213,7 +1236,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1226,7 +1249,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1239,7 +1262,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1252,7 +1275,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1265,7 +1288,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1278,7 +1301,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1291,7 +1314,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1304,7 +1327,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1317,7 +1340,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1330,7 +1353,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1343,7 +1366,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1356,7 +1379,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1369,7 +1392,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1382,7 +1405,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1418,14 +1441,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1445,7 +1468,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1454,7 +1477,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1463,7 +1486,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1485,21 +1508,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1524,14 +1547,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="100.1640625" customWidth="1"/>
+    <col min="3" max="3" width="100.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1553,49 +1576,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1610,4 +1633,84 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="22">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="22">
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <f>NETWORKDAYS(C4,C5)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <f>C5-C4</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <f>C8/3</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <f>C7/3</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <f>10+1+2+1+2</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="12816" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -778,22 +778,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.77734375" style="1"/>
-    <col min="8" max="8" width="47.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="47.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -851,7 +851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -865,7 +865,7 @@
         <v>42006</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>6</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -934,7 +934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -963,7 +963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -994,7 +994,7 @@
         <v>42006</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>6</v>
@@ -1005,7 +1005,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>6</v>
@@ -1116,7 +1116,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>6</v>
@@ -1158,7 +1158,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1441,14 +1441,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1508,21 +1508,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1547,11 +1547,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="100.109375" customWidth="1"/>
+    <col min="3" max="3" width="100.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,14 +1639,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -144,9 +144,6 @@
     <t xml:space="preserve">Trasloco </t>
   </si>
   <si>
-    <t xml:space="preserve">sei in attesa prezzi per I mobili da vendere . Il trasloco da Milano a Campofilone costa 750 EUR con il contatto di Donato </t>
-  </si>
-  <si>
     <t xml:space="preserve">biglietto </t>
   </si>
   <si>
@@ -184,6 +181,11 @@
   </si>
   <si>
     <t>GG MALATT PREVISTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hai ottenuto quotazione da Pierini (880 eur + 200 x i facchini) e la quotazione dei mobili che però non è detto riesca a piazzare 
+tuo padre ha chiesto quotazione a fornitore alternativo 
+dovete scegliere quale utilizzare </t>
   </si>
 </sst>
 </file>
@@ -776,10 +778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C14" sqref="C12:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -851,7 +854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -878,7 +881,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -905,7 +908,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -919,7 +922,7 @@
         <v>42006</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>6</v>
@@ -934,7 +937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -963,7 +966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -980,12 +983,12 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="19">
         <v>42024</v>
@@ -1030,7 +1033,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1048,17 +1051,17 @@
       <c r="G10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>38</v>
+      <c r="H10" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10"/>
@@ -1079,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
@@ -1095,12 +1098,12 @@
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
@@ -1121,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
@@ -1137,12 +1140,12 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10"/>
@@ -1158,7 +1161,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1171,7 +1174,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1184,7 +1187,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1197,7 +1200,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1210,7 +1213,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1223,7 +1226,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1236,7 +1239,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1249,7 +1252,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1262,7 +1265,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1275,7 +1278,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1288,7 +1291,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1301,7 +1304,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1314,7 +1317,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1327,7 +1330,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1340,7 +1343,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1353,7 +1356,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1366,7 +1369,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1379,7 +1382,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1392,7 +1395,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1405,7 +1408,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1419,7 +1422,13 @@
       <c r="I35" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I35"/>
+  <autoFilter ref="A1:I35">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1"/>
   </hyperlinks>
@@ -1651,7 +1660,7 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="22">
         <v>42013</v>
@@ -1659,7 +1668,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="22">
         <v>42109</v>
@@ -1667,7 +1676,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <f>NETWORKDAYS(C4,C5)</f>
@@ -1676,7 +1685,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <f>C5-C4</f>
@@ -1685,7 +1694,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <f>C8/3</f>
@@ -1694,7 +1703,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <f>C7/3</f>
@@ -1703,7 +1712,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <f>10+1+2+1+2</f>

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="12810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20380" windowHeight="12820"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IMPORTANTE!$A$1:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -186,6 +186,15 @@
     <t xml:space="preserve">hai ottenuto quotazione da Pierini (880 eur + 200 x i facchini) e la quotazione dei mobili che però non è detto riesca a piazzare 
 tuo padre ha chiesto quotazione a fornitore alternativo 
 dovete scegliere quale utilizzare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banca - rivedi indirizzo e ritira soldi </t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valuta se trasferire indirizzo da vinz o tua famiglia </t>
   </si>
 </sst>
 </file>
@@ -398,9 +407,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -473,13 +483,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -778,25 +789,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C12:C14"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="47.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="47.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -854,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -881,7 +892,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -908,7 +919,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28" hidden="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -937,7 +948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -966,7 +977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -983,7 +994,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1008,7 +1019,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1033,7 +1044,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="70">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1056,7 +1067,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1077,7 +1088,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1098,7 +1109,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1119,7 +1130,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1129,7 +1140,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>6</v>
@@ -1140,7 +1151,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1161,20 +1172,30 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1187,7 +1208,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1200,7 +1221,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1213,7 +1234,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1226,7 +1247,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1239,7 +1260,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1252,7 +1273,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1265,7 +1286,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1278,7 +1299,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1291,7 +1312,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1304,7 +1325,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1317,7 +1338,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1330,7 +1351,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1343,7 +1364,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1356,7 +1377,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1369,7 +1390,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1382,7 +1403,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1395,7 +1416,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1408,7 +1429,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1450,14 +1471,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1477,7 +1498,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1486,7 +1507,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1495,7 +1516,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1506,7 +1527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1517,21 +1538,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1556,14 +1577,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="100.140625" customWidth="1"/>
+    <col min="3" max="3" width="100.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1585,49 +1606,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1652,13 +1673,13 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -1674,7 +1695,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -1683,7 +1704,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>47</v>
       </c>
@@ -1692,7 +1713,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -1701,7 +1722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>49</v>
       </c>
@@ -1710,7 +1731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -1721,5 +1742,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t xml:space="preserve">valuta se trasferire indirizzo da vinz o tua famiglia </t>
+  </si>
+  <si>
+    <t>fare assicurazione medica USA</t>
   </si>
 </sst>
 </file>
@@ -407,9 +410,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -483,12 +487,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -789,11 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -836,7 +840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28" hidden="1">
+    <row r="2" spans="1:9" ht="28">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -865,7 +869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -892,7 +896,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -919,7 +923,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="28" hidden="1">
+    <row r="5" spans="1:9" ht="28">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -948,7 +952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -977,7 +981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -994,7 +998,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1067,7 +1071,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1109,7 +1113,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1130,7 +1134,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1151,7 +1155,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1182,7 +1186,7 @@
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>6</v>
@@ -1195,20 +1199,28 @@
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1221,7 +1233,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1234,7 +1246,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1247,7 +1259,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1260,7 +1272,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1273,7 +1285,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1286,7 +1298,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1299,7 +1311,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1312,7 +1324,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1325,7 +1337,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1338,7 +1350,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1351,7 +1363,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1364,7 +1376,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" hidden="1">
+    <row r="30" spans="1:9">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1377,7 +1389,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1390,7 +1402,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1403,7 +1415,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1416,7 +1428,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1429,7 +1441,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1443,13 +1455,7 @@
       <c r="I35" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I35">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I35"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1"/>
   </hyperlinks>

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20380" windowHeight="12820"/>
+    <workbookView xWindow="5400" yWindow="360" windowWidth="20380" windowHeight="12820"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -198,6 +198,37 @@
   </si>
   <si>
     <t>fare assicurazione medica USA</t>
+  </si>
+  <si>
+    <t>ho parlato con Piasini  
+per disdire il gas ti ho fissato un appuntamento con Donato con il tecnico il 27/4/2015 alle ore 13.00 
+Se non puoi in quella data dovresti per cortesia chiamare il 02 36 60 91 91     e chiedere un'altra data 
+Ti chiederanno il mio codice fornitura gas che è 7002032246 con un preavviso di almeno 3 giorni rispetto alla data 
+Purtroppo dicono che non è possibile farlo in anticipo e senza uscita del tecnico 
+Valuta se rifissare il 24/04 con te 
+La luce è invece possibile disdirla in anticipo e senza uscita del tecnico e l'ho schedulata per il 4/5/2015
+codice fornitura 7002032238</t>
+  </si>
+  <si>
+    <t>devi rifissaer per il 24/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da programmare tra il 15 e il 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">domicilio campofilone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulizia denti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">controllare che luce / gas / fastweb siano stati disdetti </t>
+  </si>
+  <si>
+    <t>intorno al 5 maggio dagli USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chiamare x appuntamento </t>
   </si>
 </sst>
 </file>
@@ -410,9 +441,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -487,13 +520,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -794,10 +829,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -840,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28">
+    <row r="2" spans="1:9" ht="28" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -869,7 +908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -896,7 +935,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -923,7 +962,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="28">
+    <row r="5" spans="1:9" ht="28" hidden="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -952,7 +991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -981,7 +1020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -998,7 +1037,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1023,7 +1062,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="224">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1045,8 +1084,12 @@
       <c r="G9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="70">
       <c r="A10" s="9">
@@ -1071,7 +1114,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1110,10 +1153,12 @@
       <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1134,7 +1179,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1155,7 +1200,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1176,7 +1221,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1199,7 +1244,7 @@
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1220,46 +1265,76 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="14" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
+      <c r="E18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="28">
       <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1272,7 +1347,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1285,7 +1360,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1298,7 +1373,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1311,7 +1386,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1324,7 +1399,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1337,7 +1412,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1350,7 +1425,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1363,7 +1438,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1376,7 +1451,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1389,7 +1464,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1402,7 +1477,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1415,7 +1490,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1428,7 +1503,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1441,7 +1516,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1455,7 +1530,13 @@
       <c r="I35" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I35"/>
+  <autoFilter ref="A1:I35">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1"/>
   </hyperlinks>

--- a/gino_lisa_hb/TODO.xlsx
+++ b/gino_lisa_hb/TODO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="360" windowWidth="20380" windowHeight="12820"/>
+    <workbookView xWindow="5400" yWindow="360" windowWidth="20385" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IMPORTANTE!$A$1:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -210,9 +210,6 @@
 codice fornitura 7002032238</t>
   </si>
   <si>
-    <t>devi rifissaer per il 24/04/2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">da programmare tra il 15 e il 20 </t>
   </si>
   <si>
@@ -229,6 +226,12 @@
   </si>
   <si>
     <t xml:space="preserve">chiamare x appuntamento </t>
+  </si>
+  <si>
+    <t>fissato per il 24/04/2015 dalle 13 alle 15 (citofonano)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fissato per venerdì 17/4 con il sott. Soldano alle ore 14.00 - terzo piano - rep. Paradontologia </t>
   </si>
 </sst>
 </file>
@@ -521,16 +524,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -836,21 +839,21 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="47.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="47.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="28">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -879,7 +882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28" hidden="1">
+    <row r="2" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -908,7 +911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -935,7 +938,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -962,7 +965,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="28" hidden="1">
+    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -991,7 +994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1037,7 +1040,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1062,7 +1065,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="224">
+    <row r="9" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1088,10 +1091,10 @@
         <v>56</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="70">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1114,7 +1117,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1135,7 +1138,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1154,11 +1157,13 @@
         <v>11</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" hidden="1">
+        <v>57</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1179,7 +1184,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1200,7 +1205,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1221,7 +1226,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1244,7 +1249,7 @@
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1265,12 +1270,12 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="14" customHeight="1">
+    <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -1284,18 +1289,18 @@
         <v>11</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -1311,12 +1316,12 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="28">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -1330,11 +1335,11 @@
         <v>11</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1347,7 +1352,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1360,7 +1365,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1373,7 +1378,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1386,7 +1391,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1399,7 +1404,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1412,7 +1417,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1425,7 +1430,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1438,7 +1443,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1451,7 +1456,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" hidden="1">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1464,7 +1469,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -1477,7 +1482,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1490,7 +1495,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1503,7 +1508,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -1516,7 +1521,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1558,14 +1563,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1585,7 +1590,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1594,7 +1599,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1603,7 +1608,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1614,7 +1619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1625,21 +1630,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1664,14 +1669,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="100.1640625" customWidth="1"/>
+    <col min="3" max="3" width="100.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1693,49 +1698,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1760,13 +1765,13 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -1774,7 +1779,7 @@
         <v>42013</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>47</v>
       </c>
@@ -1800,7 +1805,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -1809,7 +1814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>49</v>
       </c>
@@ -1818,7 +1823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>50</v>
       </c>
